--- a/200.xlsx
+++ b/200.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\demoui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\goweb\godocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43EC958-3D4C-4625-AC53-FF2899BEF750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2AD6F5-8BEE-4E08-9749-32FA046283E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>der</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>tet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,47 +381,47 @@
   <dimension ref="A3:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
+      <c r="A8" s="1">
+        <v>45140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
